--- a/Documents/ToDo/ToDo.xlsx
+++ b/Documents/ToDo/ToDo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Project C# en Java 2013-2014\C#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\Ik\Documents\PHL\P3\Geintegreerd project\GIT\TogetherIsBetter\Documents\ToDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDO!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,7 +390,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -434,16 +447,20 @@
     <xf numFmtId="21" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
     <dxf>
@@ -1031,7 +1048,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1164,7 +1181,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1236,9 +1253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1276,7 +1293,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1348,7 +1365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,7 +1542,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1575,35 +1592,35 @@
       <c r="A2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="29" t="s">
@@ -1710,7 +1727,7 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36" t="s">
         <v>45</v>
@@ -1738,7 +1755,7 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
         <v>45</v>
@@ -1766,7 +1783,7 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="35"/>
       <c r="G10" s="36" t="s">
         <v>45</v>
@@ -1793,7 +1810,7 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
         <v>45</v>
@@ -1810,7 +1827,7 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36" t="s">
         <v>45</v>
@@ -1878,10 +1895,10 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="35"/>
       <c r="G16" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -1890,7 +1907,7 @@
       <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="35"/>
@@ -1912,7 +1929,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="35"/>
       <c r="G18" s="36" t="s">
         <v>45</v>
@@ -1929,7 +1946,7 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="35"/>
       <c r="G19" s="36" t="s">
         <v>45</v>
@@ -1946,7 +1963,7 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="35"/>
       <c r="G20" s="36" t="s">
         <v>45</v>
@@ -1963,7 +1980,7 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36" t="s">
         <v>45</v>
@@ -1980,7 +1997,7 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36" t="s">
         <v>45</v>
@@ -1997,7 +2014,7 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="34"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="35"/>
       <c r="G23" s="36" t="s">
         <v>45</v>
@@ -2014,7 +2031,7 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36" t="s">
         <v>45</v>
@@ -2031,7 +2048,7 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="35"/>
       <c r="G25" s="36" t="s">
         <v>45</v>
@@ -2048,7 +2065,7 @@
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="35"/>
       <c r="G26" s="36" t="s">
         <v>45</v>
@@ -2082,7 +2099,7 @@
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="35"/>
       <c r="G28" s="36" t="s">
         <v>45</v>
@@ -2099,7 +2116,7 @@
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="34"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="35"/>
       <c r="G29" s="36" t="s">
         <v>45</v>
@@ -2111,7 +2128,7 @@
       <c r="A30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="35"/>
@@ -2133,7 +2150,7 @@
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="34"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="35"/>
       <c r="G31" s="36" t="s">
         <v>45</v>

--- a/Documents/ToDo/ToDo.xlsx
+++ b/Documents/ToDo/ToDo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\Ik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIB\Documents\ToDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>1 = hoog</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Gebruikers beheren voor eigen bedrijf</t>
+  </si>
+  <si>
+    <t>Een bestaande locatie kunnen editeren</t>
+  </si>
+  <si>
+    <t>Een bestaande locatie kunnen verwijderen uit het systeem</t>
   </si>
 </sst>
 </file>
@@ -441,55 +447,157 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Goed" xfId="2" builtinId="26"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="34">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,1565 +883,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2359,7 +908,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2492,7 +1041,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-BE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2544,29 +1093,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Features" displayName="Features" ref="B1:I160" totalsRowShown="0" headerRowDxfId="148" dataDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Features" displayName="Features" ref="B1:I160" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B1:I160"/>
   <sortState ref="B2:K200">
     <sortCondition descending="1" ref="H1:H200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="157"/>
-    <tableColumn id="2" name="Geschatte tijd" dataDxfId="156"/>
-    <tableColumn id="5" name="Werkelijke tijd" dataDxfId="155"/>
-    <tableColumn id="9" name="Voltooid" dataDxfId="154"/>
-    <tableColumn id="6" name="Prioriteit" dataDxfId="153"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="152"/>
-    <tableColumn id="4" name="Solved" dataDxfId="151"/>
-    <tableColumn id="8" name="APP" dataDxfId="150"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="7"/>
+    <tableColumn id="2" name="Geschatte tijd" dataDxfId="6"/>
+    <tableColumn id="5" name="Werkelijke tijd" dataDxfId="5"/>
+    <tableColumn id="9" name="Voltooid" dataDxfId="4"/>
+    <tableColumn id="6" name="Prioriteit" dataDxfId="3"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="2"/>
+    <tableColumn id="4" name="Solved" dataDxfId="1"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2604,7 +1153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2676,7 +1225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2852,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3649,14 +2198,14 @@
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="28">
-        <v>41784</v>
+        <v>41787</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="30" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I32" s="29"/>
     </row>
@@ -3665,12 +2214,12 @@
         <v>37</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="28">
-        <v>41783</v>
+        <v>41787</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="30" t="s">
@@ -3686,12 +2235,12 @@
         <v>11</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="28">
-        <v>41783</v>
+        <v>41787</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="30" t="s">
@@ -3703,24 +2252,45 @@
       <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="28">
+        <v>41783</v>
+      </c>
       <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="38"/>
+      <c r="G35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>2</v>
+      </c>
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="28">
+        <v>41783</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>2</v>
+      </c>
       <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:9">
@@ -4992,91 +3562,91 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A30"/>
-  <conditionalFormatting sqref="H36:H160 A2:I35">
-    <cfRule type="expression" dxfId="31" priority="159">
+  <conditionalFormatting sqref="H37:H160 A2:I36">
+    <cfRule type="expression" dxfId="33" priority="159">
       <formula>$H2="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="160">
+    <cfRule type="expression" dxfId="32" priority="160">
       <formula>$H2="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="161">
+    <cfRule type="expression" dxfId="31" priority="161">
       <formula>$H2="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="162">
+    <cfRule type="expression" dxfId="30" priority="162">
       <formula>$H2="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>$H37="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>$H37="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$H37="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>$H37="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>$H38="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$H38="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$H38="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$H38="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$H39="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$H39="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$H39="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$H39="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$H38="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$H38="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>$H38="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>$H38="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$H39="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$H39="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$H39="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$H39="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H161:H1048576">
       <formula1>$J$14:$J$18</formula1>
     </dataValidation>

--- a/Documents/ToDo/ToDo.xlsx
+++ b/Documents/ToDo/ToDo.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIB\Documents\ToDo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDO!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1003,7 +998,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1012,7 +1007,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1036,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1155,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,7 +1185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1401,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1529,7 +1524,9 @@
       <c r="D5" s="36">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="28">
+        <v>41790</v>
+      </c>
       <c r="F5" s="29">
         <v>4</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" t="s">
@@ -1572,11 +1569,11 @@
       <c r="I6" s="29"/>
       <c r="J6" s="8">
         <f>COUNTIFS(H2:H31,"Not Started")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <f>J6/$J$10</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>49</v>
@@ -1674,11 +1671,11 @@
       <c r="I9" s="29"/>
       <c r="J9" s="14">
         <f>COUNTIFS(H2:H31,"Solved")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="15">
         <f>J9/$J$10</f>
-        <v>0.93333333333333335</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>2</v>

--- a/Documents/ToDo/ToDo.xlsx
+++ b/Documents/ToDo/ToDo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\Ik\Documents\PHL\P3\Geintegreerd project\GIT\TogetherIsBetter\Documents\ToDo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDO!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -442,9 +447,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -903,7 +908,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1001,13 +1006,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,9 +1113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1148,9 +1153,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,7 +1190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,7 +1225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1397,7 +1402,7 @@
   <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1607,11 +1612,11 @@
       <c r="I7" s="29"/>
       <c r="J7" s="9">
         <f>COUNTIFS(H2:H31,"In Process")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10">
         <f>J7/$J$10</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>50</v>
@@ -1671,11 +1676,11 @@
       <c r="I9" s="29"/>
       <c r="J9" s="14">
         <f>COUNTIFS(H2:H31,"Solved")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="15">
         <f>J9/$J$10</f>
-        <v>0.96666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>2</v>
@@ -1881,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I17" s="29"/>
     </row>
